--- a/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_39.xlsx
+++ b/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_39.xlsx
@@ -508,50 +508,50 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_39_2</t>
+          <t>model_1_39_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9998371414872543</v>
+        <v>0.9496568191502731</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8251239404562513</v>
+        <v>0.746270352107997</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8154350460961451</v>
+        <v>0.7575143764355355</v>
       </c>
       <c r="E2" t="n">
-        <v>0.999669546837747</v>
+        <v>0.9612437888921367</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0006779029071102225</v>
+        <v>0.1764785531935087</v>
       </c>
       <c r="G2" t="n">
-        <v>1.169397015399261</v>
+        <v>1.696691323771425</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6601781384231806</v>
+        <v>0.8673570153657908</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001729835393214023</v>
+        <v>0.102141545732293</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0493873979931533</v>
+        <v>1.337509084741732</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02603656865084611</v>
+        <v>0.420093505297938</v>
       </c>
       <c r="L2" t="n">
-        <v>1.010422944815723</v>
+        <v>0.9314475835237761</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02644661858007694</v>
+        <v>0.4267095580669404</v>
       </c>
       <c r="N2" t="n">
-        <v>144.5930129702617</v>
+        <v>37.46911184328687</v>
       </c>
       <c r="O2" t="n">
-        <v>285.9281855134781</v>
+        <v>74.43369543151269</v>
       </c>
     </row>
     <row r="3">
@@ -561,95 +561,95 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9998583935374526</v>
+        <v>0.949673123298411</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8246547028744067</v>
+        <v>0.746269155857965</v>
       </c>
       <c r="D3" t="n">
-        <v>0.814018958320137</v>
+        <v>0.7576138603098895</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9998505327438583</v>
+        <v>0.9611760793588424</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0005894406807972318</v>
+        <v>0.1764213988296829</v>
       </c>
       <c r="G3" t="n">
-        <v>1.172534809269696</v>
+        <v>1.696699323100897</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6652434022884748</v>
+        <v>0.8670011673156331</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0007824217751092535</v>
+        <v>0.1023199934234835</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04626285073353217</v>
+        <v>1.338998807590226</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02427839946943027</v>
+        <v>0.4200254740247106</v>
       </c>
       <c r="L3" t="n">
-        <v>1.00906281360303</v>
+        <v>0.9314697849169853</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02466075999157818</v>
+        <v>0.426640455369166</v>
       </c>
       <c r="N3" t="n">
-        <v>144.8726729386964</v>
+        <v>37.46975966841688</v>
       </c>
       <c r="O3" t="n">
-        <v>286.2078454819128</v>
+        <v>74.43434325664271</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_39_0</t>
+          <t>model_1_39_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9998428585424874</v>
+        <v>0.9497582262165923</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8244498212707478</v>
+        <v>0.7462260784392432</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8135347348889888</v>
+        <v>0.7581675582736616</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999385251599957</v>
+        <v>0.9607599703421857</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0006541055120750189</v>
+        <v>0.1761230696494506</v>
       </c>
       <c r="G4" t="n">
-        <v>1.173904853496756</v>
+        <v>1.696987381998244</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6669754414248045</v>
+        <v>0.8650206218044729</v>
       </c>
       <c r="I4" t="n">
-        <v>0.000321804619167503</v>
+        <v>0.103416643919998</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04970074757047363</v>
+        <v>1.347517664713994</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02557548654620316</v>
+        <v>0.419670191518829</v>
       </c>
       <c r="L4" t="n">
-        <v>1.010057053280804</v>
+        <v>0.9315856697417427</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02597827489319887</v>
+        <v>0.4262795775189689</v>
       </c>
       <c r="N4" t="n">
-        <v>144.6644837721437</v>
+        <v>37.47314453788006</v>
       </c>
       <c r="O4" t="n">
-        <v>285.9996563153601</v>
+        <v>74.43772812610588</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9995541982705145</v>
+        <v>0.9497706390865628</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8229535349292189</v>
+        <v>0.7462223481121399</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8166466080947054</v>
+        <v>0.7582456216612913</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9983593007188667</v>
+        <v>0.9606943982886519</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001855661600477388</v>
+        <v>0.1760795562024179</v>
       </c>
       <c r="G5" t="n">
-        <v>1.183910527152325</v>
+        <v>1.697012326712759</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6558444514047319</v>
+        <v>0.8647413935932969</v>
       </c>
       <c r="I5" t="n">
-        <v>0.008588629222897234</v>
+        <v>0.1035894583080234</v>
       </c>
       <c r="J5" t="n">
-        <v>0.05553977510631228</v>
+        <v>1.348899716282281</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0430773908271774</v>
+        <v>0.4196183458839924</v>
       </c>
       <c r="L5" t="n">
-        <v>1.028531310687072</v>
+        <v>0.9316025723731919</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04375581667111283</v>
+        <v>0.4262269153672102</v>
       </c>
       <c r="N5" t="n">
-        <v>142.5790279771415</v>
+        <v>37.47363872439725</v>
       </c>
       <c r="O5" t="n">
-        <v>283.914200520358</v>
+        <v>74.43822231262308</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9995381280696182</v>
+        <v>0.9498970986027407</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8228032589814611</v>
+        <v>0.7459458381710962</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8165714034983982</v>
+        <v>0.7592481325169399</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9982936586520176</v>
+        <v>0.9596652266103162</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001922554240731815</v>
+        <v>0.1756362510302782</v>
       </c>
       <c r="G6" t="n">
-        <v>1.184915423106938</v>
+        <v>1.698861349961731</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6561134538851097</v>
+        <v>0.8611554703915612</v>
       </c>
       <c r="I6" t="n">
-        <v>0.008932248178591666</v>
+        <v>0.1063018283525704</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05623515665961432</v>
+        <v>1.367627594155407</v>
       </c>
       <c r="K6" t="n">
-        <v>0.04384694106470615</v>
+        <v>0.4190897887449397</v>
       </c>
       <c r="L6" t="n">
-        <v>1.029559803544437</v>
+        <v>0.9317747725654342</v>
       </c>
       <c r="M6" t="n">
-        <v>0.04453748655561464</v>
+        <v>0.4256900339815808</v>
       </c>
       <c r="N6" t="n">
-        <v>142.5082012866757</v>
+        <v>37.47868035628041</v>
       </c>
       <c r="O6" t="n">
-        <v>283.8433738298921</v>
+        <v>74.44326394450623</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9995310656690068</v>
+        <v>0.9499035263051558</v>
       </c>
       <c r="C7" t="n">
-        <v>0.82275869092529</v>
+        <v>0.7459402026209032</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8164747573121096</v>
+        <v>0.7592869832985465</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9982645071792343</v>
+        <v>0.9596083614752665</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001951951671820344</v>
+        <v>0.1756137186514452</v>
       </c>
       <c r="G7" t="n">
-        <v>1.185213449903771</v>
+        <v>1.69889903491182</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6564591516895961</v>
+        <v>0.8610165033984519</v>
       </c>
       <c r="I7" t="n">
-        <v>0.009084848471598347</v>
+        <v>0.1064516957577221</v>
       </c>
       <c r="J7" t="n">
-        <v>0.05674740922195378</v>
+        <v>1.368792434669911</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04418089713688874</v>
+        <v>0.4190629053631987</v>
       </c>
       <c r="L7" t="n">
-        <v>1.030011797183562</v>
+        <v>0.9317835251814888</v>
       </c>
       <c r="M7" t="n">
-        <v>0.04487670210210051</v>
+        <v>0.4256627272134508</v>
       </c>
       <c r="N7" t="n">
-        <v>142.477851099173</v>
+        <v>37.47893695278784</v>
       </c>
       <c r="O7" t="n">
-        <v>283.8130236423894</v>
+        <v>74.44352054101367</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9994947168119043</v>
+        <v>0.949909526006397</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8226096115456906</v>
+        <v>0.7459356346582033</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8165117775827131</v>
+        <v>0.7593229890815002</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9981172770082321</v>
+        <v>0.9595518951051001</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002103254759909431</v>
+        <v>0.1755926866352563</v>
       </c>
       <c r="G8" t="n">
-        <v>1.1862103444016</v>
+        <v>1.698929580899428</v>
       </c>
       <c r="H8" t="n">
-        <v>0.656326732328206</v>
+        <v>0.8608877128005619</v>
       </c>
       <c r="I8" t="n">
-        <v>0.009855559694369373</v>
+        <v>0.1066005122226402</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0607993370511531</v>
+        <v>1.369953617833937</v>
       </c>
       <c r="K8" t="n">
-        <v>0.04586125554222682</v>
+        <v>0.4190378105079019</v>
       </c>
       <c r="L8" t="n">
-        <v>1.032338124038127</v>
+        <v>0.9317916949874342</v>
       </c>
       <c r="M8" t="n">
-        <v>0.04658352447258052</v>
+        <v>0.4256372371392688</v>
       </c>
       <c r="N8" t="n">
-        <v>142.3285384968297</v>
+        <v>37.47917649302284</v>
       </c>
       <c r="O8" t="n">
-        <v>283.6637110400461</v>
+        <v>74.44376008124867</v>
       </c>
     </row>
     <row r="9">
@@ -855,144 +855,144 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9994012395088449</v>
+        <v>0.9499361544368482</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8222480091922657</v>
+        <v>0.745911461522853</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8163727937883225</v>
+        <v>0.759478934950969</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9977248697927522</v>
+        <v>0.9592792244760515</v>
       </c>
       <c r="F9" t="n">
-        <v>0.002492356529441886</v>
+        <v>0.1754993403905309</v>
       </c>
       <c r="G9" t="n">
-        <v>1.188628381003978</v>
+        <v>1.699091226766822</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6568238693019978</v>
+        <v>0.8603299034677333</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01190970826193464</v>
+        <v>0.1073191325090585</v>
       </c>
       <c r="J9" t="n">
-        <v>0.06000086757059202</v>
+        <v>1.375546055768488</v>
       </c>
       <c r="K9" t="n">
-        <v>0.04992350678229531</v>
+        <v>0.4189264140520754</v>
       </c>
       <c r="L9" t="n">
-        <v>1.038320671433929</v>
+        <v>0.9318279549778359</v>
       </c>
       <c r="M9" t="n">
-        <v>0.05070975210891863</v>
+        <v>0.4255240863006186</v>
       </c>
       <c r="N9" t="n">
-        <v>141.9890532373819</v>
+        <v>37.48023998908359</v>
       </c>
       <c r="O9" t="n">
-        <v>283.3242257805983</v>
+        <v>74.44482357730941</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_39_9</t>
+          <t>model_1_39_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9993657674501149</v>
+        <v>0.9499493777367792</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8221915511787244</v>
+        <v>0.745895959662952</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8162304495162993</v>
+        <v>0.7595519912783193</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9975799310988688</v>
+        <v>0.9591216053690427</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0026400099208974</v>
+        <v>0.1754529859726956</v>
       </c>
       <c r="G10" t="n">
-        <v>1.189005916000494</v>
+        <v>1.69919488777536</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6573330265094295</v>
+        <v>0.8600685852208505</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01266842420466159</v>
+        <v>0.1077345358409792</v>
       </c>
       <c r="J10" t="n">
-        <v>0.06244642051043914</v>
+        <v>1.378744414292861</v>
       </c>
       <c r="K10" t="n">
-        <v>0.05138102685717171</v>
+        <v>0.4188710851475614</v>
       </c>
       <c r="L10" t="n">
-        <v>1.04059088319265</v>
+        <v>0.9318459611734866</v>
       </c>
       <c r="M10" t="n">
-        <v>0.05219022666798879</v>
+        <v>0.4254678860211671</v>
       </c>
       <c r="N10" t="n">
-        <v>141.8739452078306</v>
+        <v>37.4807683163192</v>
       </c>
       <c r="O10" t="n">
-        <v>283.209117751047</v>
+        <v>74.44535190454502</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_39_8</t>
+          <t>model_1_39_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9993735959162047</v>
+        <v>0.9499532914812299</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8221914190146042</v>
+        <v>0.7458907395893147</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8163064793189685</v>
+        <v>0.7595739242717368</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9976121231209746</v>
+        <v>0.9590703400901791</v>
       </c>
       <c r="F11" t="n">
-        <v>0.002607423721803018</v>
+        <v>0.1754392663001093</v>
       </c>
       <c r="G11" t="n">
-        <v>1.189006799782574</v>
+        <v>1.699229794431809</v>
       </c>
       <c r="H11" t="n">
-        <v>0.657061072313743</v>
+        <v>0.8599901321751442</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01249990743563427</v>
+        <v>0.1078696448899763</v>
       </c>
       <c r="J11" t="n">
-        <v>0.06192836192994028</v>
+        <v>1.379792150311066</v>
       </c>
       <c r="K11" t="n">
-        <v>0.05106293882849887</v>
+        <v>0.4188547078643254</v>
       </c>
       <c r="L11" t="n">
-        <v>1.040089861362901</v>
+        <v>0.9318512905276322</v>
       </c>
       <c r="M11" t="n">
-        <v>0.05186712907083572</v>
+        <v>0.4254512508120915</v>
       </c>
       <c r="N11" t="n">
-        <v>141.8987852498011</v>
+        <v>37.48092471387434</v>
       </c>
       <c r="O11" t="n">
-        <v>283.2339577930175</v>
+        <v>74.44550830210017</v>
       </c>
     </row>
   </sheetData>
